--- a/snapshot_county_data/snapshot_county_METADATA_v_2_1.xlsx
+++ b/snapshot_county_data/snapshot_county_METADATA_v_2_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\met48\Desktop\V1.3_CHERR-mental_health_data_processing\dashboard_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\met48\Desktop\V2.1_CHERR-mental_health_data_processing\snapshot_county_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABA0E8A-A132-4324-849A-F5557E1C1743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E1EDB8-43EE-4E56-8273-D9BE55007357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39900F9C-C46F-4183-957F-FA1EA2F9375C}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="26100" windowHeight="14175" xr2:uid="{39900F9C-C46F-4183-957F-FA1EA2F9375C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="144">
   <si>
     <t>Name</t>
   </si>
@@ -443,14 +443,46 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Total.number.of.waivered.providers</t>
+  </si>
+  <si>
+    <t>Patient.capacity</t>
+  </si>
+  <si>
+    <t>High.need.for.treatment.services</t>
+  </si>
+  <si>
+    <t>Low.to.no.patient.capacity</t>
+  </si>
+  <si>
+    <t>The total number of waivered buprenorphine providers in a given county</t>
+  </si>
+  <si>
+    <t>The total number of patients who can be treated with buprenorphine by a waivered provider in a given county</t>
+  </si>
+  <si>
+    <t>Counties with a high rates of opioid misuse and abuse</t>
+  </si>
+  <si>
+    <t>Counties with little to no capacity to treat patients</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -478,9 +510,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -797,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A3EC8F-C693-455A-9BCD-06F94A57406A}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,19 +849,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1850,32 +1886,94 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="C63" t="s">
+        <v>69</v>
       </c>
       <c r="D63" t="s">
-        <v>116</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2018</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" t="s">
+        <v>141</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" t="s">
+        <v>142</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" t="s">
+        <v>116</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64" t="s">
-        <v>70</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" t="s">
         <v>117</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>135</v>
       </c>
     </row>
